--- a/Burndown Chart - Softlution & Ro.xlsx
+++ b/Burndown Chart - Softlution & Ro.xlsx
@@ -142,11 +142,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1446987155"/>
-        <c:axId val="1497965369"/>
+        <c:axId val="1090554820"/>
+        <c:axId val="553527188"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1446987155"/>
+        <c:axId val="1090554820"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -198,10 +198,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1497965369"/>
+        <c:crossAx val="553527188"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1497965369"/>
+        <c:axId val="553527188"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -276,7 +276,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1446987155"/>
+        <c:crossAx val="1090554820"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -558,10 +558,10 @@
         <v>0.0</v>
       </c>
       <c r="C2" s="1">
-        <v>90.0</v>
+        <v>98.0</v>
       </c>
       <c r="D2" s="1">
-        <v>90.0</v>
+        <v>98.0</v>
       </c>
     </row>
     <row r="3">
@@ -572,10 +572,10 @@
         <v>3.0</v>
       </c>
       <c r="C3" s="1">
-        <v>87.0</v>
+        <v>95.0</v>
       </c>
       <c r="D3" s="1">
-        <v>84.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="4">
@@ -586,10 +586,10 @@
         <v>8.0</v>
       </c>
       <c r="C4" s="1">
-        <v>79.0</v>
+        <v>87.0</v>
       </c>
       <c r="D4" s="1">
-        <v>77.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="5">
@@ -600,10 +600,10 @@
         <v>15.0</v>
       </c>
       <c r="C5" s="1">
-        <v>71.0</v>
+        <v>72.0</v>
       </c>
       <c r="D5" s="1">
-        <v>70.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="6">
@@ -614,10 +614,10 @@
         <v>6.0</v>
       </c>
       <c r="C6" s="1">
-        <v>65.0</v>
+        <v>66.0</v>
       </c>
       <c r="D6" s="1">
-        <v>63.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="7">
@@ -628,10 +628,10 @@
         <v>6.0</v>
       </c>
       <c r="C7" s="1">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="D7" s="1">
-        <v>56.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="8">
@@ -642,10 +642,10 @@
         <v>10.0</v>
       </c>
       <c r="C8" s="1">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="D8" s="1">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         <v>12.0</v>
       </c>
       <c r="C9" s="1">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="D9" s="1">
         <v>42.0</v>
@@ -670,10 +670,10 @@
         <v>5.0</v>
       </c>
       <c r="C10" s="1">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="D10" s="1">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="11">
@@ -684,10 +684,10 @@
         <v>7.0</v>
       </c>
       <c r="C11" s="1">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="D11" s="1">
-        <v>28.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="12">
@@ -698,26 +698,38 @@
         <v>7.0</v>
       </c>
       <c r="C12" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="D12" s="1">
         <v>18.0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>21.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
         <v>11.0</v>
       </c>
+      <c r="B13" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12.0</v>
+      </c>
       <c r="D13" s="1">
-        <v>14.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
         <v>12.0</v>
       </c>
+      <c r="B14" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D14" s="1">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
